--- a/NEW HR/ATIENZA, VENUS.xlsx
+++ b/NEW HR/ATIENZA, VENUS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>11/27,28,29</t>
+  </si>
+  <si>
+    <t>3/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -637,17 +640,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -657,6 +657,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,7 +1190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1233,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1357,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1423,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1486,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1584,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1643,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1708,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1751,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1826,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2012,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2078,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2136,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2202,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2258,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2333,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2376,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2442,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2498,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2594,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2968,12 +2971,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,14 +3006,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3021,14 +3024,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3041,16 +3044,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3076,18 +3079,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3134,7 +3137,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.379999999999981</v>
+        <v>99.629999999999981</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3144,7 +3147,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.125</v>
+        <v>79.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4634,10 +4637,10 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -4646,32 +4649,44 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49">
+        <v>44962</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="39"/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="39">
+        <v>2</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4689,7 +4704,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4707,7 +4722,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4725,7 +4740,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4743,7 +4758,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4761,7 +4776,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4779,7 +4794,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4797,7 +4812,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4815,7 +4830,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4833,7 +4848,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4851,7 +4866,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4869,7 +4884,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4887,7 +4902,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4905,7 +4920,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4923,7 +4938,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4941,7 +4956,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4959,7 +4974,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4977,7 +4992,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4995,7 +5010,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5013,7 +5028,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5031,7 +5046,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5049,7 +5064,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5067,7 +5082,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5085,7 +5100,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5103,7 +5118,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5121,7 +5136,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5139,7 +5154,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5157,7 +5172,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5175,7 +5190,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5193,7 +5208,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5211,7 +5226,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5229,7 +5244,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5247,7 +5262,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5265,7 +5280,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5283,7 +5298,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5301,7 +5316,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5319,7 +5334,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5336,7 +5351,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46143</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5544,34 +5561,50 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5639,14 +5672,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5657,14 +5690,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5677,16 +5710,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5712,18 +5745,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/ATIENZA, VENUS.xlsx
+++ b/NEW HR/ATIENZA, VENUS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -640,14 +640,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -657,9 +660,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,7 +1190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1233,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1357,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1423,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1584,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1643,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1708,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1751,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1826,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2012,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2078,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2136,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2202,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2258,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2333,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2376,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2442,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2498,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,14 +3006,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3024,14 +3024,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3044,16 +3044,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3079,18 +3079,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>79.375</v>
+        <v>78.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4688,7 +4688,9 @@
       <c r="A84" s="40">
         <v>45017</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -4697,10 +4699,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="39">
+        <v>1</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49">
+        <v>45041</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
@@ -5594,17 +5600,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5672,14 +5678,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5690,14 +5696,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5710,16 +5716,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5745,18 +5751,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/ATIENZA, VENUS.xlsx
+++ b/NEW HR/ATIENZA, VENUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>3/13,14/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/4,5/2023</t>
+  </si>
+  <si>
+    <t>5/14-16/2023</t>
   </si>
 </sst>
 </file>
@@ -2973,10 +2982,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,7 +3146,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.629999999999981</v>
+        <v>100.87999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3147,7 +3156,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>78.375</v>
+        <v>79.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4691,13 +4700,15 @@
       <c r="B84" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39">
         <v>1</v>
@@ -5645,10 +5656,10 @@
   </sheetPr>
   <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A15" activePane="bottomLeft"/>
       <selection activeCell="E87" sqref="E87"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,7 +5820,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.551000000000002</v>
+        <v>15.551000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6173,7 +6184,9 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -6189,10 +6202,16 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -6202,13 +6221,21 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="39">
+        <v>3</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13" t="str">
@@ -6218,7 +6245,9 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>

--- a/NEW HR/ATIENZA, VENUS.xlsx
+++ b/NEW HR/ATIENZA, VENUS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ECB31D-8FB5-4ABF-83E6-60601A40D7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -204,9 +205,6 @@
     <t>SL(1-0-0)</t>
   </si>
   <si>
-    <t>T(25-1-5)</t>
-  </si>
-  <si>
     <t>T(14-5-32)</t>
   </si>
   <si>
@@ -265,12 +263,18 @@
   </si>
   <si>
     <t>5/14-16/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/26,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1199,7 +1203,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1246,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1310,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1370,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1436,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1499,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1597,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1656,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1721,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1764,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1839,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2025,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2091,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2149,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2215,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2271,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2346,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2389,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2455,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2511,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2590,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2603,25 +2607,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2633,25 +2637,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K39" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2958,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2968,7 +2972,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2976,34 +2980,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
+      <selection activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3024,7 +3028,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3042,7 +3046,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3068,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3072,7 +3076,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3085,7 +3089,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3102,7 +3106,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3145,8 +3149,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>100.87999999999998</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>53.244</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3155,13 +3159,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>79.625</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>73.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3183,7 +3187,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3229,7 +3233,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3249,7 +3253,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3269,7 +3273,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3289,7 +3293,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3309,19 +3313,15 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="B17" s="20"/>
       <c r="C17" s="13">
         <v>1.25</v>
       </c>
-      <c r="D17" s="39">
-        <v>25.135000000000002</v>
-      </c>
+      <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
@@ -3333,7 +3333,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3393,12 +3393,12 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -3417,12 +3417,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -3441,15 +3441,13 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20" t="s">
-        <v>62</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="20"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="39">
-        <v>11.487</v>
-      </c>
+      <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -3461,27 +3459,29 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>46</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>43466</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3499,9 +3499,9 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3519,9 +3519,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3539,9 +3539,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3559,9 +3559,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -3579,9 +3579,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3597,11 +3597,11 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="49"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3617,11 +3617,11 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="49"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3639,11 +3639,13 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>43709</v>
-      </c>
-      <c r="B33" s="20"/>
+        <v>43739</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
@@ -3654,27 +3656,27 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>1</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
-        <v>43739</v>
-      </c>
+      <c r="K33" s="49">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C34" s="13"/>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H34" s="39">
         <v>1</v>
@@ -3682,40 +3684,42 @@
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="49">
-        <v>43748</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="13"/>
+        <v>43764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="49">
-        <v>43764</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>43770</v>
-      </c>
-      <c r="B36" s="20"/>
+        <v>43800</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>5</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
@@ -3727,51 +3731,47 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="39">
-        <v>5</v>
-      </c>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>63</v>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="40">
+        <v>43831</v>
       </c>
       <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -3789,9 +3789,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -3809,9 +3809,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -3829,9 +3829,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3849,9 +3849,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -3869,9 +3869,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -3889,9 +3889,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -3909,9 +3909,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3929,9 +3929,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3949,9 +3949,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -3969,15 +3969,19 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B49" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>5</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -3989,51 +3993,47 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B50" s="20" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="39">
-        <v>5</v>
-      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
-        <v>65</v>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="40">
+        <v>44197</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4051,9 +4051,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4071,9 +4071,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4091,9 +4091,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4111,9 +4111,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4131,9 +4131,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4151,9 +4151,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4171,9 +4171,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4191,9 +4191,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4211,9 +4211,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4231,15 +4231,19 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B62" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
-      <c r="D62" s="39"/>
+      <c r="D62" s="39">
+        <v>5</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
@@ -4251,51 +4255,47 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D63" s="39">
-        <v>5</v>
-      </c>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
-        <v>66</v>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>44562</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4313,9 +4313,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4333,9 +4333,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4353,9 +4353,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4373,9 +4373,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4393,9 +4393,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4413,9 +4413,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4433,9 +4433,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4453,9 +4453,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4473,11 +4473,13 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
@@ -4491,40 +4493,40 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>44866</v>
-      </c>
+      <c r="K74" s="49">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="49">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
@@ -4536,74 +4538,74 @@
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="39">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44896</v>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>69</v>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>44927</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B80" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
@@ -4614,27 +4616,27 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>44958</v>
-      </c>
+      <c r="K80" s="49">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="39">
         <v>1</v>
@@ -4642,37 +4644,41 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="49">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>44986</v>
+      </c>
       <c r="B82" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="49">
-        <v>44962</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -4685,21 +4691,19 @@
         <v>1.25</v>
       </c>
       <c r="H83" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="49">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B84" s="20"/>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
@@ -4710,20 +4714,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H84" s="39">
-        <v>1</v>
-      </c>
+      <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B85" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -4732,14 +4734,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="49">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4755,9 +4761,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4773,9 +4779,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4791,9 +4797,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4809,9 +4815,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4827,9 +4833,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4845,9 +4851,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4863,9 +4869,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4881,9 +4887,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4899,9 +4905,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4917,9 +4923,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4935,9 +4941,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4953,9 +4959,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4971,9 +4977,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4989,9 +4995,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5007,9 +5013,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5025,9 +5031,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5043,9 +5049,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5061,9 +5067,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5079,9 +5085,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5097,9 +5103,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5115,9 +5121,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5133,9 +5139,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5151,9 +5157,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5169,9 +5175,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5187,9 +5193,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5205,9 +5211,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5223,9 +5229,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5241,9 +5247,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5259,9 +5265,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5277,9 +5283,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5295,9 +5301,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5313,9 +5319,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5331,9 +5337,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5349,9 +5355,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46113</v>
+        <v>46143</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5367,10 +5373,8 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>46143</v>
-      </c>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5385,7 +5389,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5401,7 +5405,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5417,7 +5421,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5433,7 +5437,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5449,7 +5453,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5465,7 +5469,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5481,7 +5485,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5497,7 +5501,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5513,7 +5517,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5529,7 +5533,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5545,7 +5549,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5561,7 +5565,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5577,37 +5581,21 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="39"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="39"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5624,10 +5612,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5650,34 +5638,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A15" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="E87" sqref="E87"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5698,7 +5686,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5716,7 +5704,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5738,7 +5726,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5746,7 +5734,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5759,7 +5747,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -5776,7 +5764,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5811,7 +5799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5820,7 +5808,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.551000000000002</v>
+        <v>4.0640000000000072</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5835,7 +5823,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5857,7 +5845,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5881,7 +5869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -5901,7 +5889,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -5925,7 +5913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -5945,7 +5933,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -5967,7 +5955,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -5991,7 +5979,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6013,12 +6001,12 @@
         <v>43309</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
@@ -6035,7 +6023,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43374</v>
       </c>
@@ -6059,10 +6047,10 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
@@ -6079,12 +6067,12 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -6098,16 +6086,18 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="20"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>11.487</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -6119,13 +6109,11 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
-        <v>43647</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>54</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6134,20 +6122,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
+      <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="49">
-        <v>43659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>43647</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6156,18 +6142,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K24" s="49">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6179,15 +6167,15 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="49">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6199,19 +6187,17 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="K26" s="49">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="39">
-        <v>2</v>
-      </c>
+      <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -6221,20 +6207,18 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
@@ -6246,14 +6230,20 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="39"/>
+      <c r="D29" s="39">
+        <v>3</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13" t="str">
@@ -6263,11 +6253,15 @@
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6279,9 +6273,11 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6297,7 +6293,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6313,7 +6309,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6329,7 +6325,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6345,7 +6341,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6361,7 +6357,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6377,7 +6373,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6393,7 +6389,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6409,21 +6405,37 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="42" t="str">
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="43"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="15"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="41"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6440,10 +6452,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6466,28 +6478,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6500,7 +6512,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>85.507999999999996</v>
       </c>
@@ -6559,17 +6571,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6590,7 +6602,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6617,7 +6629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6643,7 +6655,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6695,7 +6707,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6721,7 +6733,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6773,7 +6785,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6799,7 +6811,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6819,7 +6831,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6839,7 +6851,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6859,7 +6871,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6880,7 +6892,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6901,7 +6913,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6922,7 +6934,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6943,7 +6955,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6964,7 +6976,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6985,7 +6997,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7006,7 +7018,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7027,7 +7039,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7048,7 +7060,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7069,7 +7081,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7090,7 +7102,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7111,7 +7123,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7132,7 +7144,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7153,7 +7165,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7174,7 +7186,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7195,7 +7207,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7216,7 +7228,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7237,7 +7249,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7279,7 +7291,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7288,7 +7300,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7297,7 +7309,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7306,7 +7318,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7315,7 +7327,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7324,7 +7336,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7333,7 +7345,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7342,7 +7354,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7351,7 +7363,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7360,7 +7372,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7369,7 +7381,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7378,7 +7390,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7387,7 +7399,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7396,7 +7408,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7405,7 +7417,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7414,7 +7426,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7423,7 +7435,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7432,7 +7444,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7441,7 +7453,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7450,7 +7462,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7459,7 +7471,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7468,7 +7480,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7477,7 +7489,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7486,7 +7498,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7495,7 +7507,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7504,7 +7516,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7513,7 +7525,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7522,7 +7534,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7531,7 +7543,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7540,7 +7552,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ATIENZA, VENUS.xlsx
+++ b/NEW HR/ATIENZA, VENUS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ECB31D-8FB5-4ABF-83E6-60601A40D7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -653,17 +652,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -673,6 +669,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1203,7 +1202,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1245,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1309,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1369,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1435,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1498,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1596,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1655,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1720,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1763,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1838,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2024,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2090,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2148,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2214,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2270,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2345,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2388,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2454,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2510,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2589,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2607,25 +2606,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2637,25 +2636,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2962,7 +2961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2972,7 +2971,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2980,34 +2979,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3019,16 +3018,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3037,16 +3036,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3057,18 +3056,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3076,7 +3075,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3089,24 +3088,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3160,12 +3159,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>73.25</v>
+        <v>72.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3187,7 +3186,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3233,7 +3232,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3253,7 +3252,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3273,7 +3272,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3373,7 +3372,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3393,7 +3392,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3417,7 +3416,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3441,7 +3440,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3479,7 +3478,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3499,7 +3498,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3519,7 +3518,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3539,7 +3538,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3559,7 +3558,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3579,7 +3578,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3599,7 +3598,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3619,7 +3618,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3639,7 +3638,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -3687,7 +3686,7 @@
         <v>43764</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -3731,7 +3730,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>62</v>
       </c>
@@ -3749,7 +3748,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -3769,7 +3768,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -3789,7 +3788,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -3809,7 +3808,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -3829,7 +3828,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -3849,7 +3848,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -3869,7 +3868,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -3889,7 +3888,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3909,7 +3908,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -3929,7 +3928,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -3993,7 +3992,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>64</v>
       </c>
@@ -4011,7 +4010,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4031,7 +4030,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4051,7 +4050,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4071,7 +4070,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4091,7 +4090,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4111,7 +4110,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4131,7 +4130,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4151,7 +4150,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4171,7 +4170,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4191,7 +4190,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4211,7 +4210,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4231,7 +4230,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4255,7 +4254,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>65</v>
       </c>
@@ -4273,7 +4272,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4293,7 +4292,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4313,7 +4312,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4333,7 +4332,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4353,7 +4352,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4373,7 +4372,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4393,7 +4392,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4413,7 +4412,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4433,7 +4432,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4453,7 +4452,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4473,7 +4472,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>60</v>
@@ -4519,7 +4518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -4541,7 +4540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4561,7 +4560,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>68</v>
       </c>
@@ -4579,7 +4578,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4599,7 +4598,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>54</v>
@@ -4647,7 +4646,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -4719,7 +4718,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
@@ -4743,11 +4742,11 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B86" s="20"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -4756,14 +4755,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="49">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4779,9 +4782,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4797,9 +4800,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4815,9 +4818,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4833,9 +4836,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4851,9 +4854,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4869,9 +4872,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4887,9 +4890,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4905,9 +4908,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4923,9 +4926,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4941,9 +4944,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4959,9 +4962,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4977,9 +4980,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4995,9 +4998,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5013,9 +5016,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5031,9 +5034,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5049,9 +5052,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5067,9 +5070,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5085,9 +5088,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5103,9 +5106,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5121,9 +5124,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5139,9 +5142,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5157,9 +5160,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5175,9 +5178,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5193,9 +5196,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5211,9 +5214,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5229,9 +5232,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5247,9 +5250,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5265,9 +5268,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5283,9 +5286,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5301,9 +5304,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5319,9 +5322,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5337,9 +5340,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5355,9 +5358,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5373,8 +5376,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
+        <v>46143</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5389,7 +5394,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5405,7 +5410,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5421,7 +5426,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5437,7 +5442,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5453,7 +5458,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5469,7 +5474,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5485,7 +5490,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5501,7 +5506,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5517,7 +5522,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5533,7 +5538,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5549,7 +5554,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5565,7 +5570,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5581,41 +5586,57 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5638,34 +5659,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="E87" sqref="E87"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5677,16 +5698,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5695,16 +5716,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5715,18 +5736,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5734,7 +5755,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5747,24 +5768,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5799,7 +5820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5823,7 +5844,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5845,7 +5866,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5869,7 +5890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -5889,7 +5910,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -5913,7 +5934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -5933,7 +5954,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -5955,7 +5976,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -5979,7 +6000,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6001,7 +6022,7 @@
         <v>43309</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -6023,7 +6044,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43374</v>
       </c>
@@ -6047,7 +6068,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -6067,7 +6088,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -6089,7 +6110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>61</v>
@@ -6109,7 +6130,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6127,7 +6148,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43647</v>
       </c>
@@ -6151,7 +6172,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>65</v>
       </c>
@@ -6169,7 +6190,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44866</v>
       </c>
@@ -6191,7 +6212,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>68</v>
       </c>
@@ -6209,7 +6230,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45017</v>
       </c>
@@ -6233,7 +6254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45047</v>
       </c>
@@ -6257,7 +6278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>75</v>
@@ -6277,7 +6298,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6293,7 +6314,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6309,7 +6330,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6325,7 +6346,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6341,7 +6362,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6357,7 +6378,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6373,7 +6394,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6389,7 +6410,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6405,7 +6426,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6421,7 +6442,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="15"/>
       <c r="C40" s="42"/>
@@ -6452,10 +6473,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6478,28 +6499,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6512,7 +6533,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6541,7 +6562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>85.507999999999996</v>
       </c>
@@ -6571,17 +6592,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6602,7 +6623,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6629,7 +6650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6655,7 +6676,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6681,7 +6702,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6707,7 +6728,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6733,7 +6754,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6759,7 +6780,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6785,7 +6806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6811,7 +6832,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6831,7 +6852,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6851,7 +6872,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6871,7 +6892,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6892,7 +6913,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6913,7 +6934,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6934,7 +6955,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6955,7 +6976,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6976,7 +6997,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6997,7 +7018,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7018,7 +7039,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7039,7 +7060,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7060,7 +7081,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7081,7 +7102,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7102,7 +7123,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7123,7 +7144,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7144,7 +7165,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7165,7 +7186,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7186,7 +7207,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7207,7 +7228,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7228,7 +7249,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7249,7 +7270,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7270,7 +7291,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7291,7 +7312,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7300,7 +7321,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7309,7 +7330,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7318,7 +7339,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7327,7 +7348,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7336,7 +7357,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7345,7 +7366,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7354,7 +7375,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7363,7 +7384,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7372,7 +7393,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7381,7 +7402,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7390,7 +7411,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7399,7 +7420,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7408,7 +7429,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7417,7 +7438,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7426,7 +7447,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7435,7 +7456,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7444,7 +7465,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7453,7 +7474,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7462,7 +7483,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7471,7 +7492,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7480,7 +7501,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7489,7 +7510,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7498,7 +7519,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7507,7 +7528,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7516,7 +7537,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7525,7 +7546,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7534,7 +7555,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7543,7 +7564,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7552,7 +7573,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ATIENZA, VENUS.xlsx
+++ b/NEW HR/ATIENZA, VENUS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF928C4-2B73-441E-94B6-FA5B31746771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -268,12 +269,15 @@
   </si>
   <si>
     <t>5/26,29/2023</t>
+  </si>
+  <si>
+    <t>7/6,7/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -652,14 +656,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -669,9 +676,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1202,7 +1206,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1249,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1373,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1439,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1502,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1600,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1659,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1724,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1767,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1842,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2028,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2094,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2152,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2218,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2274,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2349,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2392,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2458,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2514,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2593,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2606,25 +2610,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2636,25 +2640,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2961,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2971,7 +2975,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2979,34 +2983,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3018,16 +3022,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3036,16 +3040,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3056,18 +3060,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3075,7 +3079,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3088,24 +3092,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3149,7 +3153,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.244</v>
+        <v>54.494</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3159,12 +3163,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>72.25</v>
+        <v>73.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3190,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3232,7 +3236,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3252,7 +3256,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3292,7 +3296,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3312,7 +3316,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3332,7 +3336,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3352,7 +3356,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3372,7 +3376,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3392,7 +3396,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3416,7 +3420,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3440,7 +3444,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3458,7 +3462,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3498,7 +3502,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3518,7 +3522,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3538,7 +3542,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3558,7 +3562,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3578,7 +3582,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3598,7 +3602,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3618,7 +3622,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3638,7 +3642,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -3686,7 +3690,7 @@
         <v>43764</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3706,7 +3710,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -3730,7 +3734,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>62</v>
       </c>
@@ -3748,7 +3752,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -3768,7 +3772,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -3788,7 +3792,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -3808,7 +3812,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -3828,7 +3832,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -3848,7 +3852,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -3868,7 +3872,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -3888,7 +3892,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3908,7 +3912,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -3928,7 +3932,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -3948,7 +3952,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -3968,7 +3972,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -3992,7 +3996,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>64</v>
       </c>
@@ -4010,7 +4014,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4030,7 +4034,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4050,7 +4054,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4070,7 +4074,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4090,7 +4094,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4110,7 +4114,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4150,7 +4154,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4170,7 +4174,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4190,7 +4194,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4210,7 +4214,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4230,7 +4234,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>65</v>
       </c>
@@ -4272,7 +4276,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4292,7 +4296,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4312,7 +4316,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4332,7 +4336,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4352,7 +4356,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4432,7 +4436,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4452,7 +4456,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4472,7 +4476,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4496,7 +4500,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>60</v>
@@ -4518,7 +4522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -4540,7 +4544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>68</v>
       </c>
@@ -4578,7 +4582,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4598,7 +4602,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>54</v>
@@ -4646,7 +4650,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -4718,20 +4722,22 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39">
         <v>1</v>
@@ -4742,7 +4748,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>54</v>
@@ -4764,7 +4770,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45108</v>
       </c>
@@ -4782,7 +4788,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45139</v>
       </c>
@@ -4800,7 +4806,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45170</v>
       </c>
@@ -4818,7 +4824,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45200</v>
       </c>
@@ -4836,7 +4842,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45231</v>
       </c>
@@ -4854,7 +4860,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45261</v>
       </c>
@@ -4872,7 +4878,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45292</v>
       </c>
@@ -4890,7 +4896,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45323</v>
       </c>
@@ -4908,7 +4914,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45352</v>
       </c>
@@ -4926,7 +4932,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45383</v>
       </c>
@@ -4944,7 +4950,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45413</v>
       </c>
@@ -4962,7 +4968,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45444</v>
       </c>
@@ -4980,7 +4986,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45474</v>
       </c>
@@ -4998,7 +5004,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45505</v>
       </c>
@@ -5016,7 +5022,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45536</v>
       </c>
@@ -5034,7 +5040,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45566</v>
       </c>
@@ -5052,7 +5058,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45597</v>
       </c>
@@ -5070,7 +5076,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45627</v>
       </c>
@@ -5088,7 +5094,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45658</v>
       </c>
@@ -5106,7 +5112,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45689</v>
       </c>
@@ -5124,7 +5130,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45717</v>
       </c>
@@ -5142,7 +5148,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45748</v>
       </c>
@@ -5160,7 +5166,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45778</v>
       </c>
@@ -5178,7 +5184,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45809</v>
       </c>
@@ -5196,7 +5202,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45839</v>
       </c>
@@ -5214,7 +5220,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45870</v>
       </c>
@@ -5232,7 +5238,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45901</v>
       </c>
@@ -5250,7 +5256,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45931</v>
       </c>
@@ -5268,7 +5274,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45962</v>
       </c>
@@ -5286,7 +5292,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45992</v>
       </c>
@@ -5304,7 +5310,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>46023</v>
       </c>
@@ -5322,7 +5328,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46054</v>
       </c>
@@ -5340,7 +5346,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>46082</v>
       </c>
@@ -5358,7 +5364,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>46113</v>
       </c>
@@ -5376,7 +5382,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>46143</v>
       </c>
@@ -5394,7 +5400,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5410,7 +5416,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5426,7 +5432,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5442,7 +5448,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5458,7 +5464,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5474,7 +5480,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5490,7 +5496,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5506,7 +5512,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5522,7 +5528,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5538,7 +5544,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5554,7 +5560,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5570,7 +5576,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5586,7 +5592,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5602,7 +5608,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -5620,23 +5626,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5659,34 +5665,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="E87" sqref="E87"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5698,16 +5704,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5716,16 +5722,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5736,18 +5742,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5755,7 +5761,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5768,24 +5774,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5820,7 +5826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5829,7 +5835,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.0640000000000072</v>
+        <v>2.0640000000000072</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5844,7 +5850,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5866,7 +5872,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -5910,7 +5916,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -5954,7 +5960,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -5976,7 +5982,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6022,7 +6028,7 @@
         <v>43309</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -6044,7 +6050,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43374</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -6088,7 +6094,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>61</v>
@@ -6130,7 +6136,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6148,7 +6154,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43647</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>65</v>
       </c>
@@ -6190,7 +6196,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44866</v>
       </c>
@@ -6212,7 +6218,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>68</v>
       </c>
@@ -6230,7 +6236,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>45017</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>45047</v>
       </c>
@@ -6278,7 +6284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>75</v>
@@ -6298,11 +6304,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>45106</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>2</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -6312,9 +6324,11 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6330,7 +6344,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6346,7 +6360,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6362,7 +6376,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6378,7 +6392,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6394,7 +6408,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6410,7 +6424,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6426,7 +6440,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6442,7 +6456,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="15"/>
       <c r="C40" s="42"/>
@@ -6473,10 +6487,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6499,28 +6513,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6533,7 +6547,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6562,7 +6576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>85.507999999999996</v>
       </c>
@@ -6592,17 +6606,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6623,7 +6637,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6650,7 +6664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6676,7 +6690,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6702,7 +6716,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6728,7 +6742,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6754,7 +6768,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6780,7 +6794,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6806,7 +6820,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6832,7 +6846,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6852,7 +6866,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6872,7 +6886,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6892,7 +6906,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6913,7 +6927,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6934,7 +6948,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6955,7 +6969,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6976,7 +6990,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6997,7 +7011,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7018,7 +7032,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7039,7 +7053,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7060,7 +7074,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7081,7 +7095,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7102,7 +7116,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7123,7 +7137,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7144,7 +7158,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7165,7 +7179,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7186,7 +7200,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7207,7 +7221,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7228,7 +7242,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7249,7 +7263,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7270,7 +7284,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7291,7 +7305,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7312,7 +7326,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7321,7 +7335,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7330,7 +7344,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7339,7 +7353,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7348,7 +7362,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7357,7 +7371,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7366,7 +7380,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7375,7 +7389,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7384,7 +7398,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7393,7 +7407,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7402,7 +7416,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7411,7 +7425,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7420,7 +7434,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7429,7 +7443,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7438,7 +7452,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7447,7 +7461,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7456,7 +7470,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7465,7 +7479,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7474,7 +7488,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7483,7 +7497,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7492,7 +7506,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7501,7 +7515,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7510,7 +7524,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7519,7 +7533,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7528,7 +7542,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7537,7 +7551,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7546,7 +7560,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7555,7 +7569,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7564,7 +7578,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7573,7 +7587,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ATIENZA, VENUS.xlsx
+++ b/NEW HR/ATIENZA, VENUS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF928C4-2B73-441E-94B6-FA5B31746771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -272,12 +271,21 @@
   </si>
   <si>
     <t>7/6,7/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/3,4,7/2023</t>
+  </si>
+  <si>
+    <t>8/24,25/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1206,7 +1214,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1257,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1321,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1381,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1447,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1510,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1608,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1667,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1732,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1775,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1850,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2036,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2102,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2160,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2226,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2282,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2357,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2400,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2466,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2522,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2601,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2610,25 +2618,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2640,25 +2648,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2965,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2975,7 +2983,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2983,34 +2991,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3031,7 +3039,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3049,7 +3057,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3071,7 +3079,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3079,7 +3087,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3092,7 +3100,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3109,7 +3117,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3153,7 +3161,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>54.494</v>
+        <v>56.994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3163,12 +3171,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>73.5</v>
+        <v>71</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3190,7 +3198,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3216,7 +3224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3236,7 +3244,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3256,7 +3264,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3276,7 +3284,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3296,7 +3304,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3316,7 +3324,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3336,7 +3344,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3356,7 +3364,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3376,7 +3384,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3396,7 +3404,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3420,7 +3428,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3444,7 +3452,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3462,7 +3470,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3482,7 +3490,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3502,7 +3510,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3522,7 +3530,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3542,7 +3550,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3562,7 +3570,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3582,7 +3590,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3602,7 +3610,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3622,7 +3630,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3642,7 +3650,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3668,7 +3676,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -3690,7 +3698,7 @@
         <v>43764</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3710,7 +3718,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -3734,7 +3742,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>62</v>
       </c>
@@ -3752,7 +3760,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -3772,7 +3780,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -3792,7 +3800,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -3812,7 +3820,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -3832,7 +3840,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -3852,7 +3860,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -3872,7 +3880,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -3892,7 +3900,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3912,7 +3920,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -3932,7 +3940,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -3952,7 +3960,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -3972,7 +3980,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -3996,7 +4004,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>64</v>
       </c>
@@ -4014,7 +4022,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4034,7 +4042,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4054,7 +4062,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4074,7 +4082,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4094,7 +4102,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4114,7 +4122,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4134,7 +4142,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4154,7 +4162,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4174,7 +4182,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4194,7 +4202,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4214,7 +4222,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4234,7 +4242,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4258,7 +4266,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>65</v>
       </c>
@@ -4276,7 +4284,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4296,7 +4304,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4316,7 +4324,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4336,7 +4344,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4356,7 +4364,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4376,7 +4384,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4396,7 +4404,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4416,7 +4424,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4436,7 +4444,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4456,7 +4464,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4476,7 +4484,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>60</v>
@@ -4522,7 +4530,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -4544,7 +4552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4564,7 +4572,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>68</v>
       </c>
@@ -4582,7 +4590,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4602,7 +4610,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -4628,7 +4636,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>54</v>
@@ -4650,7 +4658,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4676,7 +4684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4702,7 +4710,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -4722,7 +4730,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>54</v>
@@ -4770,47 +4778,57 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45108</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45139</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="39"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="39">
+        <v>3</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B89" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -4819,14 +4837,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>2</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4842,9 +4864,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4860,9 +4882,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4878,9 +4900,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4896,9 +4918,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4914,9 +4936,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4932,9 +4954,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4950,9 +4972,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4968,9 +4990,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4986,9 +5008,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5004,9 +5026,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5022,9 +5044,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5040,9 +5062,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5058,9 +5080,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5076,9 +5098,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5094,9 +5116,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5112,9 +5134,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5130,9 +5152,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5148,9 +5170,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5166,9 +5188,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5184,9 +5206,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5202,9 +5224,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5220,9 +5242,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5238,9 +5260,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5256,9 +5278,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5274,9 +5296,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5292,9 +5314,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5310,9 +5332,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5328,9 +5350,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5346,9 +5368,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5364,9 +5386,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5382,9 +5404,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5400,8 +5422,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
+        <v>46143</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5416,7 +5440,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5432,7 +5456,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5448,7 +5472,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5464,7 +5488,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5480,7 +5504,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5496,7 +5520,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5512,7 +5536,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5528,7 +5552,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5544,7 +5568,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5560,7 +5584,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5576,7 +5600,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5592,7 +5616,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5608,21 +5632,37 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5639,10 +5679,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5665,34 +5705,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A25" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="E87" sqref="E87"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5713,7 +5753,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5731,7 +5771,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5753,7 +5793,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5761,7 +5801,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5774,7 +5814,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -5791,7 +5831,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5826,7 +5866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5850,7 +5890,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5872,7 +5912,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5896,7 +5936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -5916,7 +5956,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -5940,7 +5980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -5960,7 +6000,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -5982,7 +6022,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6006,7 +6046,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6028,7 +6068,7 @@
         <v>43309</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -6050,7 +6090,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43374</v>
       </c>
@@ -6074,7 +6114,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -6094,7 +6134,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -6116,7 +6156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>61</v>
@@ -6136,7 +6176,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6154,7 +6194,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43647</v>
       </c>
@@ -6178,7 +6218,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>65</v>
       </c>
@@ -6196,7 +6236,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44866</v>
       </c>
@@ -6218,7 +6258,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>68</v>
       </c>
@@ -6236,7 +6276,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45017</v>
       </c>
@@ -6260,7 +6300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45047</v>
       </c>
@@ -6284,7 +6324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>75</v>
@@ -6304,7 +6344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45106</v>
       </c>
@@ -6328,7 +6368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6344,7 +6384,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6360,7 +6400,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6376,7 +6416,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6392,7 +6432,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6408,7 +6448,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6424,7 +6464,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6440,7 +6480,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6456,7 +6496,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="15"/>
       <c r="C40" s="42"/>
@@ -6487,10 +6527,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6513,28 +6553,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6547,7 +6587,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6576,7 +6616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>85.507999999999996</v>
       </c>
@@ -6606,17 +6646,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6637,7 +6677,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6664,7 +6704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6690,7 +6730,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6716,7 +6756,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6742,7 +6782,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6768,7 +6808,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6794,7 +6834,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6820,7 +6860,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6846,7 +6886,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6866,7 +6906,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6886,7 +6926,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6906,7 +6946,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6927,7 +6967,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6948,7 +6988,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6969,7 +7009,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6990,7 +7030,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7011,7 +7051,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7032,7 +7072,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7053,7 +7093,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7074,7 +7114,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7095,7 +7135,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7116,7 +7156,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7137,7 +7177,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7158,7 +7198,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7179,7 +7219,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7200,7 +7240,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7221,7 +7261,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7242,7 +7282,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7263,7 +7303,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7284,7 +7324,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7305,7 +7345,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7326,7 +7366,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7335,7 +7375,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7344,7 +7384,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7353,7 +7393,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7362,7 +7402,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7371,7 +7411,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7380,7 +7420,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7389,7 +7429,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7398,7 +7438,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7407,7 +7447,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7416,7 +7456,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7425,7 +7465,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7434,7 +7474,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7443,7 +7483,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7452,7 +7492,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7461,7 +7501,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7470,7 +7510,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7479,7 +7519,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7488,7 +7528,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7497,7 +7537,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7506,7 +7546,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7515,7 +7555,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7524,7 +7564,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7533,7 +7573,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7542,7 +7582,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7551,7 +7591,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7560,7 +7600,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7569,7 +7609,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7578,7 +7618,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7587,7 +7627,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
